--- a/Mechatronics/Hardware/Electrical/BOM/EncoderBoard2.xlsx
+++ b/Mechatronics/Hardware/Electrical/BOM/EncoderBoard2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
   <si>
     <t xml:space="preserve">Item</t>
   </si>
@@ -52,7 +52,26 @@
     <t xml:space="preserve">4.7uF</t>
   </si>
   <si>
-    <t xml:space="preserve">C4, C5, C8, C9</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">C4, C5, C8, C9, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">C27, C27</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100nF</t>
@@ -169,6 +188,15 @@
     <t xml:space="preserve">1.2K</t>
   </si>
   <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/16 5%</t>
+  </si>
+  <si>
     <t xml:space="preserve">R5, R9, R10, R19, R20</t>
   </si>
   <si>
@@ -181,6 +209,9 @@
     <t xml:space="preserve">1K</t>
   </si>
   <si>
+    <t xml:space="preserve">¼</t>
+  </si>
+  <si>
     <t xml:space="preserve">R8, R11, R12, R13, R14, R15, R16, R17, R18</t>
   </si>
   <si>
@@ -281,17 +312,15 @@
   </si>
   <si>
     <t xml:space="preserve">ITR8102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C27 (x2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -325,6 +354,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -335,13 +371,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -413,7 +442,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -434,7 +463,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -446,14 +479,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -462,12 +495,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -547,10 +600,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -619,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -635,7 +688,7 @@
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="5" t="n">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -715,7 +768,7 @@
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -724,7 +777,7 @@
       <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -741,7 +794,7 @@
       <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -758,7 +811,7 @@
       <c r="B12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -775,7 +828,7 @@
       <c r="B13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -792,7 +845,7 @@
       <c r="B14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -809,7 +862,7 @@
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -820,16 +873,16 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="0" t="s">
@@ -843,10 +896,10 @@
       <c r="B17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -871,11 +924,11 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+      <c r="A19" s="8" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>47</v>
@@ -891,17 +944,20 @@
       <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>5</v>
+      <c r="B20" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>46</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,50 +965,54 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>100</v>
+        <v>54</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>100</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -962,31 +1022,31 @@
       <c r="B24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>57</v>
+      <c r="C24" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+      <c r="A25" s="8" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>60</v>
+      <c r="C25" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -996,14 +1056,14 @@
       <c r="B26" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>63</v>
+      <c r="C26" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1013,31 +1073,31 @@
       <c r="B27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>66</v>
+      <c r="C27" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
+      <c r="A28" s="8" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>68</v>
+        <v>1</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,16 +1105,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1064,31 +1124,31 @@
       <c r="B30" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>74</v>
+      <c r="C30" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+      <c r="A31" s="8" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>82402305</v>
+      <c r="C31" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,14 +1158,14 @@
       <c r="B32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>79</v>
+      <c r="C32" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>82402305</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,53 +1175,58 @@
       <c r="B33" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="4"/>
+      <c r="C33" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>84</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>85</v>
+        <v>2</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="n">
+      <c r="A36" s="8" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="4"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
@@ -1170,17 +1235,21 @@
       <c r="B37" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D37" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16" t="n">
+        <f aca="false">SUM(B2:B33)</f>
+        <v>68</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19"/>
+    </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Mechatronics/Hardware/Electrical/BOM/EncoderBoard2.xlsx
+++ b/Mechatronics/Hardware/Electrical/BOM/EncoderBoard2.xlsx
@@ -602,8 +602,8 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -873,7 +873,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="n">
@@ -924,7 +924,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="n">
@@ -979,7 +979,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+      <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="n">
@@ -1033,7 +1033,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+      <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="n">
@@ -1084,7 +1084,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+      <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="n">
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+      <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="n">
@@ -1218,7 +1218,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="n">
+      <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="n">
@@ -1242,10 +1242,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15"/>
-      <c r="B38" s="16" t="n">
-        <f aca="false">SUM(B2:B33)</f>
-        <v>68</v>
-      </c>
+      <c r="B38" s="16"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18"/>
       <c r="E38" s="19"/>

--- a/Mechatronics/Hardware/Electrical/BOM/EncoderBoard2.xlsx
+++ b/Mechatronics/Hardware/Electrical/BOM/EncoderBoard2.xlsx
@@ -299,7 +299,7 @@
     <t xml:space="preserve">EG1218</t>
   </si>
   <si>
-    <t xml:space="preserve">U7 (x2)</t>
+    <t xml:space="preserve">U7, U7</t>
   </si>
   <si>
     <t xml:space="preserve">TLE5009</t>
@@ -603,7 +603,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Mechatronics/Hardware/Electrical/BOM/EncoderBoard2.xlsx
+++ b/Mechatronics/Hardware/Electrical/BOM/EncoderBoard2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t xml:space="preserve">Item</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t xml:space="preserve">SSD1306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U8,U8</t>
   </si>
   <si>
     <t xml:space="preserve">ITR8102</t>
@@ -442,7 +445,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -499,28 +502,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -602,7 +589,7 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -1235,17 +1222,19 @@
       <c r="B37" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>90</v>
       </c>
+      <c r="D37" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Mechatronics/Hardware/Electrical/BOM/EncoderBoard2.xlsx
+++ b/Mechatronics/Hardware/Electrical/BOM/EncoderBoard2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t xml:space="preserve">Item</t>
   </si>
@@ -60,7 +60,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">C4, C5, C8, C9, </t>
+      <t xml:space="preserve">C4, C5, C8, C9, C15, </t>
     </r>
     <r>
       <rPr>
@@ -95,18 +95,21 @@
     <t xml:space="preserve">10uF</t>
   </si>
   <si>
-    <t xml:space="preserve">C15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.1uF</t>
-  </si>
-  <si>
     <t xml:space="preserve">C19, C20, C21, C22, C23, C24, C25, C26</t>
   </si>
   <si>
     <t xml:space="preserve">3.2uF</t>
   </si>
   <si>
+    <t xml:space="preserve">J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encoder:BarrelJack_Horizontal</t>
+  </si>
+  <si>
     <t xml:space="preserve">J1</t>
   </si>
   <si>
@@ -125,15 +128,6 @@
     <t xml:space="preserve">Encoder:PinHeader_1x07_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t xml:space="preserve">J3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrel_Jack_Switch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encoder:BarrelJack_Horizontal</t>
-  </si>
-  <si>
     <t xml:space="preserve">J4</t>
   </si>
   <si>
@@ -182,7 +176,7 @@
     <t xml:space="preserve">Encoder:R_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
   </si>
   <si>
-    <t xml:space="preserve">R3, R4, R6</t>
+    <t xml:space="preserve">R3, R4</t>
   </si>
   <si>
     <t xml:space="preserve">1.2K</t>
@@ -194,25 +188,25 @@
     <t xml:space="preserve">1.5K</t>
   </si>
   <si>
+    <t xml:space="preserve">R5, R9, R10, R19, R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10K</t>
+  </si>
+  <si>
     <t xml:space="preserve">1/16 5%</t>
   </si>
   <si>
-    <t xml:space="preserve">R5, R9, R10, R19, R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10K</t>
-  </si>
-  <si>
     <t xml:space="preserve">R7</t>
   </si>
   <si>
     <t xml:space="preserve">1K</t>
   </si>
   <si>
+    <t xml:space="preserve">R8, R11, R12, R13, R14, R15, R16, R17, R18</t>
+  </si>
+  <si>
     <t xml:space="preserve">¼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8, R11, R12, R13, R14, R15, R16, R17, R18</t>
   </si>
   <si>
     <t xml:space="preserve">D1</t>
@@ -470,20 +464,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -589,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -659,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -722,12 +716,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -739,23 +733,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -764,14 +757,14 @@
       <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,14 +774,14 @@
       <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>25</v>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,14 +791,14 @@
       <c r="B12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>28</v>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,14 +808,14 @@
       <c r="B13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>31</v>
+      <c r="C13" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,48 +825,48 @@
       <c r="B14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>34</v>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>39</v>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -881,13 +874,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>43</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>560</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>44</v>
@@ -900,48 +893,48 @@
       <c r="B18" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>560</v>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>51</v>
@@ -952,54 +945,54 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>100</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1010,13 +1003,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,13 +1020,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,13 +1037,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1061,13 +1054,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,7 +1068,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>70</v>
@@ -1084,7 +1077,7 @@
         <v>71</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1092,16 +1085,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1112,13 +1105,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,13 +1122,13 @@
         <v>1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="D31" s="2" t="n">
+        <v>82402305</v>
+      </c>
       <c r="E31" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,13 +1139,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>82402305</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,46 +1155,40 @@
       <c r="B33" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="0" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,27 +1196,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="4"/>
-    </row>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="2"/>
       <c r="C38" s="11"/>

--- a/Mechatronics/Hardware/Electrical/BOM/EncoderBoard2.xlsx
+++ b/Mechatronics/Hardware/Electrical/BOM/EncoderBoard2.xlsx
@@ -209,6 +209,39 @@
     <t xml:space="preserve">¼</t>
   </si>
   <si>
+    <t xml:space="preserve">Y1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8Mhz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encoder:Crystal_HC49-U_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP4056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encoder:Sop(8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DW01+G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encoder:Sot-23(6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmosfet (FS8205)</t>
+  </si>
+  <si>
     <t xml:space="preserve">D1</t>
   </si>
   <si>
@@ -216,39 +249,6 @@
   </si>
   <si>
     <t xml:space="preserve">Encoder:D_SMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8Mhz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encoder:Crystal_HC49-U_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP4056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encoder:Sop(8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DW01+G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encoder:Sot-23(6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dmosfet (FS8205)</t>
   </si>
   <si>
     <t xml:space="preserve">Q2, Q3</t>
@@ -583,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D22:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1043,7 +1043,7 @@
         <v>66</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1054,13 +1054,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,7 +1128,7 @@
         <v>82402305</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Mechatronics/Hardware/Electrical/BOM/EncoderBoard2.xlsx
+++ b/Mechatronics/Hardware/Electrical/BOM/EncoderBoard2.xlsx
@@ -188,13 +188,13 @@
     <t xml:space="preserve">1.5K</t>
   </si>
   <si>
+    <t xml:space="preserve">1/16 5%</t>
+  </si>
+  <si>
     <t xml:space="preserve">R5, R9, R10, R19, R20</t>
   </si>
   <si>
     <t xml:space="preserve">10K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/16 5%</t>
   </si>
   <si>
     <t xml:space="preserve">R7</t>
@@ -583,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D22:D24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -919,6 +919,9 @@
       <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="F19" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -928,16 +931,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
